--- a/BUDGET.xlsx
+++ b/BUDGET.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Desktop\iot_air_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -139,9 +139,6 @@
     </r>
   </si>
   <si>
-    <t>Standard tactile push button</t>
-  </si>
-  <si>
     <t>5 V active piezo buzzer.</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
   </si>
   <si>
     <t>Wi‑Fi data connection plan (monthly)</t>
-  </si>
-  <si>
-    <t>ABS plastic project box (project size dependent).</t>
   </si>
   <si>
     <t>Standard 830‑tie point breadboard.</t>
@@ -204,6 +198,12 @@
   </si>
   <si>
     <t>12 V Li‑ion / lead‑acid battery, 2–5 Ah typical</t>
+  </si>
+  <si>
+    <t>Standard tactile push button/switch</t>
+  </si>
+  <si>
+    <t>wooden box</t>
   </si>
 </sst>
 </file>
@@ -555,16 +555,16 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -604,17 +604,17 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
         <f>D2*E2</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -624,7 +624,7 @@
       </c>
       <c r="K2" s="2">
         <f>F2</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -635,17 +635,17 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F21" si="0">D3*E3</f>
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="I3" s="2">
         <v>2</v>
@@ -655,7 +655,7 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K21" si="1">F3</f>
-        <v>2000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1">
         <v>2300</v>
@@ -697,17 +697,17 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="I5" s="2">
         <v>4</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -728,17 +728,17 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="I6" s="2">
         <v>5</v>
@@ -748,7 +748,7 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
         <v>400</v>
@@ -790,17 +790,17 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1">
         <v>250</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="I8" s="2">
         <v>7</v>
@@ -810,7 +810,7 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -821,17 +821,17 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="I9" s="2">
         <v>8</v>
@@ -841,7 +841,7 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -852,17 +852,17 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
         <v>200</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I10" s="2">
         <v>9</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -883,17 +883,17 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I11" s="2">
         <v>10</v>
@@ -903,7 +903,7 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>1000</v>
@@ -945,17 +945,17 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I13" s="2">
         <v>12</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>2500</v>
@@ -1007,17 +1007,17 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="I15" s="2">
         <v>14</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1038,17 +1038,17 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I16" s="2">
         <v>15</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -1100,7 +1100,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -1131,17 +1131,17 @@
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I19" s="2">
         <v>18</v>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1196,14 +1196,14 @@
         <v>27</v>
       </c>
       <c r="D21" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I21" s="2">
         <v>20</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="F23" s="1">
         <f>K23</f>
-        <v>22830</v>
+        <v>17860</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="K23" s="2">
         <f>SUM(K2:K21)</f>
-        <v>22830</v>
+        <v>17860</v>
       </c>
     </row>
   </sheetData>

--- a/BUDGET.xlsx
+++ b/BUDGET.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Serial No</t>
   </si>
@@ -204,6 +204,24 @@
   </si>
   <si>
     <t>wooden box</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>COMPONENTS</t>
+  </si>
+  <si>
+    <t>SENSORS</t>
+  </si>
+  <si>
+    <t>MICROCONTOLLER</t>
+  </si>
+  <si>
+    <t>POWER SUPPLY UNIT</t>
+  </si>
+  <si>
+    <t>CONNECTIVITY</t>
   </si>
 </sst>
 </file>
@@ -552,17 +570,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="23.7109375" customWidth="1"/>
   </cols>
@@ -1248,6 +1266,81 @@
         <v>17860</v>
       </c>
     </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="1">
+        <f>K3+K4+K13</f>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1">
+        <f>K2</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1">
+        <f>K21+K20+K9+K10+K8+K7+K6+K5+K15</f>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1">
+        <f>K18+K17+K19+K16</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="1">
+        <f>K14+K12</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1">
+        <f>K11</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1">
+        <f>SUM(E27:E32)</f>
+        <v>17860</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
